--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new_0523\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF3725E-2105-47BB-876B-10BF36337C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAA806B-B6C6-4597-AF01-3E9CB552D39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="113">
   <si>
     <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOTA_UNIT_CAP_NO_ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BaseAttackSpeed</t>
   </si>
   <si>
@@ -410,6 +406,14 @@
   </si>
   <si>
     <t>HasInventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_UNIT_CAP_RANGED_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_OnProjectileHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,28 +800,27 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="23" width="13.640625" style="2" customWidth="1"/>
-    <col min="24" max="25" width="9.140625" style="3"/>
-    <col min="26" max="34" width="9.140625" style="4"/>
-    <col min="35" max="41" width="9.140625" style="5"/>
-    <col min="42" max="44" width="9.140625" style="6"/>
-    <col min="45" max="48" width="9.140625" style="2"/>
-    <col min="49" max="51" width="9.140625" style="1"/>
-    <col min="52" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="1"/>
+    <col min="6" max="23" width="13.625" style="2" customWidth="1"/>
+    <col min="24" max="25" width="9.125" style="3"/>
+    <col min="26" max="34" width="9.125" style="4"/>
+    <col min="35" max="41" width="9.125" style="5"/>
+    <col min="42" max="44" width="9.125" style="6"/>
+    <col min="45" max="48" width="9.125" style="2"/>
+    <col min="49" max="51" width="9.125" style="1"/>
+    <col min="52" max="16384" width="9.125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,7 +975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -1052,82 +1055,82 @@
         <v>83</v>
       </c>
       <c r="AA2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="AI2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AL2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="AQ2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>80</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>80</v>
@@ -1204,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="AA3" s="4">
         <v>100</v>
@@ -1225,28 +1228,28 @@
         <v>600</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ3" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK3" s="5">
         <v>0</v>
       </c>
       <c r="AL3" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM3" s="5">
         <v>0</v>
       </c>
       <c r="AN3" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO3" s="5">
         <v>0</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ3" s="6">
         <v>550</v>
